--- a/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_1_sites.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/2024/bf_202403_sch_ia_1_sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32203E23-FC0C-479B-8AFC-3C0F58B18DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA59E46-F537-4515-9427-9DFAB0F15943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -861,9 +861,6 @@
     <t>Bagre</t>
   </si>
   <si>
-    <t>bf_202311_sch_impact_assessment_1_sites_v2_1</t>
-  </si>
-  <si>
     <t>Bourma</t>
   </si>
   <si>
@@ -885,7 +882,10 @@
     <t>Rapadama Ud</t>
   </si>
   <si>
-    <t>(BF - Novembre 2023) impact schisto - 1. Formulaire Village V2.1</t>
+    <t>bf_202403_sch_ia_1_sites</t>
+  </si>
+  <si>
+    <t>(BF - Mars 2024) impact schisto - 1. Formulaire Village</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -920,42 +920,42 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2284,7 +2284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3855,10 +3855,10 @@
         <v>97</v>
       </c>
       <c r="B124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E124" t="s">
         <v>206</v>
@@ -3871,10 +3871,10 @@
         <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C125" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E125" t="s">
         <v>206</v>
@@ -3887,10 +3887,10 @@
         <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C126" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E126" t="s">
         <v>206</v>
@@ -3935,10 +3935,10 @@
         <v>97</v>
       </c>
       <c r="B129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E129" t="s">
         <v>206</v>
@@ -3951,10 +3951,10 @@
         <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E130" t="s">
         <v>206</v>
@@ -3967,10 +3967,10 @@
         <v>97</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
         <v>206</v>
@@ -3981,10 +3981,10 @@
         <v>97</v>
       </c>
       <c r="B132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E132" t="s">
         <v>206</v>
@@ -4009,63 +4009,63 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A93:G107">
     <sortCondition ref="B93:B107"/>
   </sortState>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="duplicateValues" dxfId="26" priority="81"/>
+  <conditionalFormatting sqref="B8:B20">
+    <cfRule type="duplicateValues" dxfId="26" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C18">
+    <cfRule type="duplicateValues" dxfId="14" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="10" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23 G30:G34 G25:G28">
+    <cfRule type="duplicateValues" dxfId="6" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="duplicateValues" dxfId="23" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="duplicateValues" dxfId="15" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+  <conditionalFormatting sqref="G32:G33">
+    <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B20">
-    <cfRule type="duplicateValues" dxfId="6" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C18">
-    <cfRule type="duplicateValues" dxfId="4" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G33">
-    <cfRule type="duplicateValues" dxfId="2" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23 G30:G34 G25:G28">
-    <cfRule type="duplicateValues" dxfId="1" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4077,7 +4077,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -4106,7 +4106,7 @@
         <v>282</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>16</v>
@@ -4183,7 +4183,7 @@
         <v>206</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
         <v>229</v>
@@ -4212,7 +4212,7 @@
         <v>206</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
         <v>205</v>
@@ -4241,7 +4241,7 @@
         <v>206</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I4" t="s">
         <v>229</v>
@@ -4319,7 +4319,7 @@
         <v>206</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I7" t="s">
         <v>205</v>
@@ -4345,7 +4345,7 @@
         <v>206</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L8" t="s">
         <v>209</v>
@@ -4365,7 +4365,7 @@
         <v>206</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L9" t="s">
         <v>209</v>
@@ -4405,7 +4405,7 @@
         <v>206</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L11" t="s">
         <v>209</v>
@@ -5231,7 +5231,7 @@
         <v>206</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -5251,7 +5251,7 @@
         <v>206</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -5271,7 +5271,7 @@
         <v>206</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -5331,7 +5331,7 @@
         <v>206</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -5351,7 +5351,7 @@
         <v>206</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -5371,7 +5371,7 @@
         <v>206</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -5391,7 +5391,7 @@
         <v>206</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:13">
